--- a/TemperatureData/N.IndianBrook01/1201_2024.xlsx
+++ b/TemperatureData/N.IndianBrook01/1201_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice.sharepoint.com/sites/TeamMosher/Shared Documents/General/People/Scott, Reed/VTADS/HoboLoggerData/N.IndianBrook-1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitrepos\VTADS\TemperatureData\N.IndianBrook01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDCC1141-2BAF-4606-8D46-45AB3D9B0B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628E31FE-06F0-4ADD-89B6-3E2BB33FF6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{67F3402A-44D7-4F1A-A2AE-606221CDDA0D}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{67F3402A-44D7-4F1A-A2AE-606221CDDA0D}"/>
   </bookViews>
   <sheets>
     <sheet name="1201_2024" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Plot Title: Indian Brook -1</t>
   </si>
@@ -50,9 +50,6 @@
     <t>End Of File (LGR S/N: 21422116)</t>
   </si>
   <si>
-    <t>Logged</t>
-  </si>
-  <si>
     <t>#Site: N. Indian Brook 1</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>#Logger was collected on 08/08/2024 at 10:50</t>
+  </si>
+  <si>
+    <t>#All data after this date/time was deleted</t>
   </si>
 </sst>
 </file>
@@ -927,9 +927,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535E7626-A1DF-4FB7-909D-07CFDBBED9F2}">
-  <dimension ref="A1:H5586"/>
+  <dimension ref="A1:H5566"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A5545" workbookViewId="0">
+      <selection activeCell="A5586" sqref="A5567:XFD5586"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -78863,286 +78865,6 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5567" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5567">
-        <v>5565</v>
-      </c>
-      <c r="B5567" s="1">
-        <v>45512.458333333336</v>
-      </c>
-      <c r="C5567">
-        <v>73.406999999999996</v>
-      </c>
-      <c r="D5567">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5568" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5568">
-        <v>5566</v>
-      </c>
-      <c r="B5568" s="1">
-        <v>45512.46875</v>
-      </c>
-      <c r="C5568">
-        <v>75.831999999999994</v>
-      </c>
-      <c r="D5568">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5569" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5569">
-        <v>5567</v>
-      </c>
-      <c r="B5569" s="1">
-        <v>45512.479166666664</v>
-      </c>
-      <c r="C5569">
-        <v>79.150999999999996</v>
-      </c>
-      <c r="D5569">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5570" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5570">
-        <v>5568</v>
-      </c>
-      <c r="B5570" s="1">
-        <v>45512.489583333336</v>
-      </c>
-      <c r="C5570">
-        <v>88.65</v>
-      </c>
-      <c r="D5570">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="5571" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5571">
-        <v>5569</v>
-      </c>
-      <c r="B5571" s="1">
-        <v>45512.5</v>
-      </c>
-      <c r="C5571">
-        <v>94.253</v>
-      </c>
-      <c r="D5571">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="5572" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5572">
-        <v>5570</v>
-      </c>
-      <c r="B5572" s="1">
-        <v>45512.510416666664</v>
-      </c>
-      <c r="C5572">
-        <v>99.686999999999998</v>
-      </c>
-      <c r="D5572">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="5573" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5573">
-        <v>5571</v>
-      </c>
-      <c r="B5573" s="1">
-        <v>45512.520833333336</v>
-      </c>
-      <c r="C5573">
-        <v>102.697</v>
-      </c>
-      <c r="D5573">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="5574" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5574">
-        <v>5572</v>
-      </c>
-      <c r="B5574" s="1">
-        <v>45512.53125</v>
-      </c>
-      <c r="C5574">
-        <v>96.555000000000007</v>
-      </c>
-      <c r="D5574">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5575" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5575">
-        <v>5573</v>
-      </c>
-      <c r="B5575" s="1">
-        <v>45512.541666666664</v>
-      </c>
-      <c r="C5575">
-        <v>89.384</v>
-      </c>
-      <c r="D5575">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5576" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5576">
-        <v>5574</v>
-      </c>
-      <c r="B5576" s="1">
-        <v>45512.552083333336</v>
-      </c>
-      <c r="C5576">
-        <v>92.736999999999995</v>
-      </c>
-      <c r="D5576">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="5577" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5577">
-        <v>5575</v>
-      </c>
-      <c r="B5577" s="1">
-        <v>45512.5625</v>
-      </c>
-      <c r="C5577">
-        <v>98.698999999999998</v>
-      </c>
-      <c r="D5577">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5578" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5578">
-        <v>5576</v>
-      </c>
-      <c r="B5578" s="1">
-        <v>45512.572916666664</v>
-      </c>
-      <c r="C5578">
-        <v>99.885000000000005</v>
-      </c>
-      <c r="D5578">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5579" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5579">
-        <v>5577</v>
-      </c>
-      <c r="B5579" s="1">
-        <v>45512.583333333336</v>
-      </c>
-      <c r="C5579">
-        <v>100.68300000000001</v>
-      </c>
-      <c r="D5579">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5580" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5580">
-        <v>5578</v>
-      </c>
-      <c r="B5580" s="1">
-        <v>45512.59375</v>
-      </c>
-      <c r="C5580">
-        <v>101.08199999999999</v>
-      </c>
-      <c r="D5580">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5581" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5581">
-        <v>5579</v>
-      </c>
-      <c r="B5581" s="1">
-        <v>45512.604166666664</v>
-      </c>
-      <c r="C5581">
-        <v>100.88200000000001</v>
-      </c>
-      <c r="D5581">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5582" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5582">
-        <v>5580</v>
-      </c>
-      <c r="B5582" s="1">
-        <v>45512.614583333336</v>
-      </c>
-      <c r="C5582">
-        <v>94.061999999999998</v>
-      </c>
-      <c r="D5582">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5583" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5583">
-        <v>5581</v>
-      </c>
-      <c r="B5583" s="1">
-        <v>45512.625</v>
-      </c>
-      <c r="C5583">
-        <v>84.295000000000002</v>
-      </c>
-      <c r="D5583">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5584" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5584">
-        <v>5582</v>
-      </c>
-      <c r="B5584" s="1">
-        <v>45512.635416666664</v>
-      </c>
-      <c r="C5584">
-        <v>73.58</v>
-      </c>
-      <c r="D5584">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5585" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5585">
-        <v>5583</v>
-      </c>
-      <c r="B5585" s="1">
-        <v>45512.64539351852</v>
-      </c>
-      <c r="E5585" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5585" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5586" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5586">
-        <v>5584</v>
-      </c>
-      <c r="B5586" s="1">
-        <v>45512.645798611113</v>
-      </c>
-      <c r="G5586" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5586" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -79150,36 +78872,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B159FF7-DD9C-4603-8CAE-A406C099F847}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -79416,15 +79143,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="94106a43-364c-4431-a764-9e3dd608a139" xsi:nil="true"/>
@@ -79435,14 +79153,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E8519D-9B82-4CA3-8EA0-F8F3D6CD7CD0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38E8519D-9B82-4CA3-8EA0-F8F3D6CD7CD0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3497285D-A174-4955-B1AB-22EED2233BB8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A947E52A-918C-4485-B3B8-28C0D3B17C29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A947E52A-918C-4485-B3B8-28C0D3B17C29}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3497285D-A174-4955-B1AB-22EED2233BB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>